--- a/biology/Virologie/RhGB01/RhGB01.xlsx
+++ b/biology/Virologie/RhGB01/RhGB01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus RhGB01 est une souche de coronavirus associé au SRAS (espèce SARSr-CoV), qui a été identifié en 2020 dans des échantillons de chauves-souris Rhinolophus hipposideros dans le Somerset et le Monmouthshire au Royaume-Uni.
-C'est le premier Sarbecovirus découvert chez une chauve-souris dans l'Ouest de l'Europe[a]. La protéine spiculaire de ce coronavirus est identique à 81 % à celle du SARS-CoV-1 et à 77 % à celle du SARS-CoV-2. Elle n'est toutefois pas capable de se lier au récepteur ACE2 humain et ne présente donc pas en l’état de risque de produire une zoonose humaine[1],[2].
+C'est le premier Sarbecovirus découvert chez une chauve-souris dans l'Ouest de l'Europe[a]. La protéine spiculaire de ce coronavirus est identique à 81 % à celle du SARS-CoV-1 et à 77 % à celle du SARS-CoV-2. Elle n'est toutefois pas capable de se lier au récepteur ACE2 humain et ne présente donc pas en l’état de risque de produire une zoonose humaine,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Position phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre phylogénétique des souches de coronavirus de l'espèce SARSr-CoV est le suivant :
 Animal hôte :
